--- a/spectroscopic_factors/excel/116Cd_p,d_115Cd_bite_3_spec_factors.xlsx
+++ b/spectroscopic_factors/excel/116Cd_p,d_115Cd_bite_3_spec_factors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ENERGY</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>SPECTROSCOPIC_FACTOR</t>
+  </si>
+  <si>
+    <t>ERROR</t>
   </si>
 </sst>
 </file>
@@ -380,13 +383,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,8 +399,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -405,13 +411,16 @@
         <v>1862.87</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0.0182948041552181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05922545059314008</v>
+      </c>
+      <c r="E2">
+        <v>0.00568035920186994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -424,8 +433,11 @@
       <c r="D3">
         <v>0.0443288990743002</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0.003845078982516567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -438,8 +450,11 @@
       <c r="D4">
         <v>0.02810964105644485</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>0.001491722245118135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -452,8 +467,11 @@
       <c r="D5">
         <v>0.0409853248420584</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0.001739056214628624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -466,8 +484,11 @@
       <c r="D6">
         <v>0.02100317822164607</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>0.001324524752716419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -480,8 +501,11 @@
       <c r="D7">
         <v>0.03969538251213013</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>0.001665873366816012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -489,203 +513,268 @@
         <v>2131.014162259718</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>0.02401036440866795</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.006495147395202784</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2145.124556760028</v>
+        <v>2131.014162259718</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>0.008333543767399554</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01124859826003481</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2176.865287362391</v>
+        <v>2145.124556760028</v>
       </c>
       <c r="C10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0.008333543767399554</v>
+      </c>
+      <c r="E10">
+        <v>0.0009152446912172919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2196.568275413792</v>
+        <v>2176.865287362391</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>0.005353855876328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.07716494257580392</v>
+      </c>
+      <c r="E11">
+        <v>0.008573882508422658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2220.798153327344</v>
+        <v>2196.568275413792</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>0.005834606493549305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.01350355374353616</v>
+      </c>
+      <c r="E12">
+        <v>0.001129388131277569</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2246.353097309466</v>
+        <v>2220.798153327344</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>0.004273261164151795</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.01541937895772884</v>
+      </c>
+      <c r="E13">
+        <v>0.001239499916216145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2306.889948659801</v>
+        <v>2246.353097309466</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0.02531035941517577</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.004273261164151795</v>
+      </c>
+      <c r="E14">
+        <v>0.0002831192004141017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2318.773858810782</v>
+        <v>2306.889948659801</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>0.04014875941325093</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.02531035941517577</v>
+      </c>
+      <c r="E15">
+        <v>0.001752652179462273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2332.404601796536</v>
+        <v>2318.773858810782</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>0.00807230668169847</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.04014875941325093</v>
+      </c>
+      <c r="E16">
+        <v>0.001971127723131183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2342.559621553097</v>
+        <v>2332.404601796536</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>0.008687218081936166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.009930304388552249</v>
+      </c>
+      <c r="E17">
+        <v>0.001429963831951524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2352.409431043697</v>
+        <v>2342.559621553097</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01189349736647337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.008687218081936166</v>
+      </c>
+      <c r="E18">
+        <v>0.001116928039106079</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2364.788262037358</v>
+        <v>2352.409431043697</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>0.01937268493144125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.01189349736647337</v>
+      </c>
+      <c r="E19">
+        <v>0.001427219683976804</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2374.896726123765</v>
+        <v>2364.788262037358</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>0.04401072620265029</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01937268493144125</v>
+      </c>
+      <c r="E20">
+        <v>0.001596649856986916</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2384.426696065908</v>
+        <v>2374.896726123765</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>0.002501150571464353</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.04401072620265029</v>
+      </c>
+      <c r="E21">
+        <v>0.002088100148300926</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
+        <v>2384.426696065908</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.002501150571464353</v>
+      </c>
+      <c r="E22">
+        <v>0.0002881559463663034</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
         <v>2397.177155842639</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>3</v>
       </c>
-      <c r="D22">
-        <v>0.04481373175717652</v>
+      <c r="D23">
+        <v>0.05384121018720114</v>
+      </c>
+      <c r="E23">
+        <v>0.002575736907103759</v>
       </c>
     </row>
   </sheetData>
